--- a/pred_ohlcv/54_21/2020-01-16 OCN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 OCN ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-25674461.40984614</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-25674461.40984614</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-25674461.40984614</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-25672462.40984614</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-25672462.40984614</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-25676157.75394614</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-25674958.75394614</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-26487807.30244614</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-27037807.30244614</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-26787807.30244614</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-26862807.30244614</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-15889885.99074614</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-16289885.99074614</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-14279330.67284614</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-15195651.79624614</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-14096568.49204614</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-12277238.41154614</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-12277238.41154614</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-8252203.19814614</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-6788472.22444614</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-7046628.65364614</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-9961865.617846141</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-11429089.71624614</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-15575069.76134614</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-1277576.695346138</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-1277576.695346138</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-1262220.967446138</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-1262220.967446138</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-1262220.967446138</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-1262220.967446138</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-1262220.967446138</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-1262220.967446138</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-864078.9674461382</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-789078.9674461382</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-853975.5071461381</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>6082353.627853862</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>9263345.446476122</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>6156515.456776123</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>6156515.456776123</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>6156515.456776123</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>5924843.961876122</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>5924843.961876122</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>5011682.881776122</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>4961682.881776122</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>5263011.650776123</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>5080001.650776123</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>5180001.650776123</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>5178028.485819533</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>5385224.051219532</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>5281486.941219532</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>6532553.651519531</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>7673803.193919531</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>4582595.935019531</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>4582595.935019531</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>4230628.598719532</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>4562094.164219532</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>3310092.353319532</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>3310092.353319532</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>3730205.824519532</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>1755205.824519532</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>1944205.824519532</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>1944205.824519532</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>1335582.734519532</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>1500775.494519532</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>1500531.041919532</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>1250119.041919532</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>1251165.597419532</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>765165.5974195325</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>665165.5974195325</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>3165165.597419532</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>2221401.429819533</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>2216150.306719533</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>1924602.306719533</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 OCN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 OCN ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-25674461.40984614</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-25674461.40984614</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-25674461.40984614</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-25672462.40984614</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-25672462.40984614</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-25676157.75394614</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-25674958.75394614</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-26487807.30244614</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-27037807.30244614</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-26787807.30244614</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-26862807.30244614</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-15889885.99074614</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-16289885.99074614</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-14279330.67284614</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-15195651.79624614</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-14096568.49204614</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-12277238.41154614</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-12277238.41154614</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-11127238.41154614</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-10857238.41154614</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-11012095.34404614</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-11012095.34404614</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-11087095.34404614</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-11003095.34404614</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-16333446.60044614</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-16323447.60044614</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-16406732.60044614</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-16406732.60044614</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-8252203.19814614</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-7528203.19814614</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-7532995.78814614</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-7407692.02814614</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-7819882.38714614</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-6788472.22444614</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-6788472.22444614</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-7048547.65364614</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-7046628.65364614</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-7046628.65364614</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-7164701.23064614</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-7064701.23064614</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-6960978.23064614</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-9654315.617846141</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-9654315.617846141</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-12973015.81284614</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-11429089.71624614</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-1277576.695346138</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-1277576.695346138</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-1262220.967446138</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-1262220.967446138</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-1262220.967446138</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-1262220.967446138</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-1262220.967446138</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-1262220.967446138</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-864078.9674461382</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-789078.9674461382</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-853975.5071461381</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>6014625.972853862</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>6014625.972853862</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>6034644.972853862</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>6027353.627853862</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>6082353.627853862</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>6082353.627853862</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>9263345.446476122</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>6156515.456776123</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>6156515.456776123</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>6156515.456776123</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>5924843.961876122</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>5924843.961876122</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>5011682.881776122</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>4961682.881776122</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>5263011.650776123</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>5080001.650776123</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>5180001.650776123</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>5178028.485819533</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>5385224.051219532</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>5281486.941219532</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>6532553.651519531</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>7673803.193919531</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>4582595.935019531</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>4582595.935019531</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>4230628.598719532</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>4562094.164219532</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>3310092.353319532</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>3310092.353319532</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>3730205.824519532</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>1755205.824519532</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>1944205.824519532</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>1944205.824519532</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>1335582.734519532</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>1500775.494519532</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>1500531.041919532</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
